--- a/3sem/Econom/Практика ЭФП.xlsx
+++ b/3sem/Econom/Практика ЭФП.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seron\Desktop\study\3sem\Econom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57FA27-FD7A-4629-88B6-EAB20ED094E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12120" windowHeight="11955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="вариант 1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,20 @@
     <sheet name="вариант 5" sheetId="5" r:id="rId5"/>
     <sheet name="вариант 6" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="141">
   <si>
     <t>1. Составить баланс предприятия, если известны данные</t>
   </si>
@@ -415,13 +429,40 @@
   </si>
   <si>
     <t xml:space="preserve">2. По данным финансовой отчетности определите: </t>
+  </si>
+  <si>
+    <t>Собственный капитал</t>
+  </si>
+  <si>
+    <t>Внеоборотные активы</t>
+  </si>
+  <si>
+    <t>Оборотные активы</t>
+  </si>
+  <si>
+    <t>Краткосрочные обязательства</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Рентабельность продаж</t>
+  </si>
+  <si>
+    <t>Рентабельность активов</t>
+  </si>
+  <si>
+    <t>Рентабельность продукции</t>
+  </si>
+  <si>
+    <t>Рентабельность собственного капитала</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +508,16 @@
       <color rgb="FF666666"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +542,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -569,11 +630,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -585,7 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,12 +726,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -704,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,9 +843,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,6 +895,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -945,245 +1088,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:13">
+      <c r="E2" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="33">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="35.25" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="33">
         <v>200</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="33">
+        <v>200</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30">
+      <c r="A5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="36">
+        <f>500-L14</f>
+        <v>400</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="F5" s="33">
+        <v>-250</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="33">
+        <v>150</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="33">
+        <v>150</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30">
+      <c r="A9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="33">
+        <v>100</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="33">
         <v>250</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C10" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>200</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E10" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <f>F3+F4+F5+F8</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <f>B4+B5+B8+B9+B10</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="42" customHeight="1">
+      <c r="K14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="33">
+        <v>100</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="15" spans="1:13" hidden="1"/>
+    <row r="16" spans="1:13" s="29" customFormat="1" hidden="1">
+      <c r="A16" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1">
+      <c r="A17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="33">
+        <v>100</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" hidden="1">
+      <c r="A18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="33">
+        <v>12</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" hidden="1">
+      <c r="A19" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="33">
+        <v>11</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1">
+      <c r="A20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="33">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1">
+      <c r="A21" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="33">
+        <v>130</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1">
+      <c r="A22" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" hidden="1">
+      <c r="A23" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="33">
         <v>150</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>500</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="3">
-        <v>100</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3">
-        <v>150</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3">
-        <v>250</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1"/>
-    <row r="16" spans="1:3" s="7" customFormat="1" hidden="1">
-      <c r="A16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="3">
-        <v>100</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" hidden="1">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="3">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" hidden="1">
-      <c r="A19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1">
-      <c r="A21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="3">
-        <v>130</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1">
-      <c r="A22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" hidden="1">
-      <c r="A23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="3">
-        <v>150</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1"/>
     <row r="25" spans="1:3" hidden="1"/>
     <row r="26" spans="1:3" hidden="1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1191,852 +1366,891 @@
     <row r="32" spans="1:3" hidden="1"/>
     <row r="33" spans="1:5" hidden="1"/>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="36.75" thickBot="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>43465</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>43100</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>42735</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>1150</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <v>215509</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>167093</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>71662</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>1180</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>414</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="16">
         <v>609</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>1190</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>23292</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>153</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="15">
         <v>1100</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="19">
         <v>239215</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>167855</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>71665</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>1210</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="19">
         <v>332644</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="19">
         <v>213415</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>163611</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>1220</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>844</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>27</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>2707</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>1230</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
         <v>116046</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <v>212307</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>122722</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>1250</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>8521</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>42295</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>3953</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>1260</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="19">
         <v>3445</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>10</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>1200</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>461500</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>468054</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>292993</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="21">
         <v>1600</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="22">
         <v>700715</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>635909</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>364658</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>1310</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <v>10</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="17">
         <v>10</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>1320</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>0</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="20">
         <v>0</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>1370</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>186293</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="14">
         <v>167025</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="14">
         <v>118609</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>1300</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="19">
         <v>186303</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="19">
         <v>167035</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>118619</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>1410</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="19">
         <v>310687</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>242734</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="19">
         <v>29668</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>1420</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>18825</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>14364</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>11200</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>1400</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="19">
         <v>329512</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="19">
         <v>257098</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>40868</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>1510</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>0</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="20">
         <v>0</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>1520</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>182898</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>208772</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="14">
         <v>205171</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>1530</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>0</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="20">
         <v>0</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>1540</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="14">
         <v>2002</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>3004</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>1550</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>0</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="20">
         <v>0</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <v>1500</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="14">
         <v>184900</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>211776</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="14">
         <v>205171</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="21">
         <v>1700</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="22">
         <v>700715</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="22">
         <v>635909</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="22">
         <v>364658</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-    </row>
     <row r="80" spans="1:5" ht="90.75" thickBot="1">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A81" s="12" t="s">
+    </row>
+    <row r="81" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A81" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>2018</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>2017</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>2016</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A82" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>2110</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>350654</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>477090</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>432520</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A83" s="16" t="s">
+      <c r="G82" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="39">
+        <f>C86/C82</f>
+        <v>0.11825332093744831</v>
+      </c>
+      <c r="I82" s="39">
+        <f>D86/D82</f>
+        <v>0.15832023307971244</v>
+      </c>
+      <c r="J82" s="39">
+        <f>E86/E82</f>
+        <v>0.12531443632664385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A83" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>2120</v>
       </c>
-      <c r="C83" s="20">
-        <v>-309187</v>
-      </c>
-      <c r="D83" s="20">
-        <v>-400622</v>
-      </c>
-      <c r="E83" s="20">
-        <v>-378237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A84" s="14" t="s">
+      <c r="C83" s="19">
+        <v>309187</v>
+      </c>
+      <c r="D83" s="19">
+        <v>400622</v>
+      </c>
+      <c r="E83" s="19">
+        <v>378237</v>
+      </c>
+      <c r="K83" s="39"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A84" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>2100</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>41467</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>76468</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>54283</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A85" s="16" t="s">
+      <c r="G84" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="39">
+        <f>C95/((C60+D60)/2)</f>
+        <v>2.8830845473371718E-2</v>
+      </c>
+      <c r="I84" s="39">
+        <f t="shared" ref="I84:J84" si="0">D95/((D60+E60)/2)</f>
+        <v>9.6777127368781898E-2</v>
+      </c>
+      <c r="J84" s="39">
+        <f t="shared" si="0"/>
+        <v>0.22421556636629389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A85" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>2210</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <v>-1</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D85" s="16">
         <v>-935</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="16">
         <v>-82</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A86" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>2200</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>41466</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>75533</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>54201</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A87" s="16" t="s">
+      <c r="G86" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H86" s="39">
+        <f>C86/C83</f>
+        <v>0.13411301251346272</v>
+      </c>
+      <c r="I86" s="39">
+        <f t="shared" ref="I86:J86" si="1">D86/D83</f>
+        <v>0.18853932135529253</v>
+      </c>
+      <c r="J86" s="39">
+        <f t="shared" si="1"/>
+        <v>0.1432990426637267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A87" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>2330</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <v>-18750</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>-10024</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <v>-6077</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A88" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>2340</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>7367</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>12632</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>7265</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A89" s="16" t="s">
+      <c r="G88" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="39">
+        <f>C95/((C66+D66)/2)</f>
+        <v>0.10906271049250293</v>
+      </c>
+      <c r="I88" s="39">
+        <f t="shared" ref="I88:J88" si="2">D95/((D66+E66)/2)</f>
+        <v>0.33898352552388555</v>
+      </c>
+      <c r="J88" s="39">
+        <f t="shared" si="2"/>
+        <v>0.68928249268666908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A89" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>2350</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="19">
         <v>-5783</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="19">
         <v>-16041</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="19">
         <v>-3837</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A90" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>2300</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>24300</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>62100</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>51552</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A91" s="16" t="s">
+    <row r="91" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A91" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>2410</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>-375</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>-11102</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>-10905</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A92" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <v>2430</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>-4461</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="14">
         <v>-3164</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="17">
         <v>524</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A93" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>2450</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <v>-195</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="16">
         <v>606</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A94" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>2460</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>-1</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="17">
         <v>-24</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="17">
         <v>-290</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A95" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>2400</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <v>19268</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="19">
         <v>48416</v>
       </c>
-      <c r="E95" s="20">
+      <c r="E95" s="19">
         <v>40881</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A96" s="26" t="s">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A96" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>2500</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <v>19268</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>48416</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>40881</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2055,17 +2269,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="5" customWidth="1"/>
@@ -2086,7 +2300,7 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>80</v>
       </c>
     </row>
@@ -2094,7 +2308,7 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2102,7 +2316,7 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>20</v>
       </c>
     </row>
@@ -2110,7 +2324,7 @@
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2118,7 +2332,7 @@
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>15</v>
       </c>
     </row>
@@ -2126,7 +2340,7 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2134,7 +2348,7 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>30</v>
       </c>
     </row>
@@ -2142,7 +2356,7 @@
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2150,7 +2364,7 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>30</v>
       </c>
     </row>
@@ -2158,7 +2372,7 @@
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>20</v>
       </c>
     </row>
@@ -2171,7 +2385,7 @@
       <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>300</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2182,7 +2396,7 @@
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2193,7 +2407,7 @@
       <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2204,7 +2418,7 @@
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>3000</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2215,7 +2429,7 @@
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>390</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2226,7 +2440,7 @@
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2237,7 +2451,7 @@
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>450</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2334,7 +2548,7 @@
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="36.75" thickBot="1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B44"/>
@@ -2343,524 +2557,524 @@
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>43465</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>43100</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>42735</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>1110</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>3069</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>2673</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>1035</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>1150</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>1021444</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>1033981</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>1136706</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>1170</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>7231957</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>3064983</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>5269960</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>1180</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>73191</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="16">
         <v>328</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>1190</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>18642</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>10771</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="17">
         <v>916</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="15">
         <v>1100</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <v>8348303</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>4112736</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>6408617</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="15">
         <v>1210</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <v>740399</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>742622</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>730280</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>1220</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>189</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>40</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>1230</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <v>1071654</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <v>872831</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>549755</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>1240</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>10562</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>3085128</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>1250</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>102113</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>271131</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>380448</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>1260</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>10947</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>9229</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>57144</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>1200</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <v>1935864</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>4980981</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>1717889</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>1600</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C62" s="24">
         <v>10284167</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="24">
         <v>9093717</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="24">
         <v>8126506</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="15">
         <v>1310</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="19">
         <v>15046</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="19">
         <v>15046</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="19">
         <v>15046</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>1350</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>47168</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>47168</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="14">
         <v>47168</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>1360</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="19">
         <v>2257</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="19">
         <v>2257</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="19">
         <v>2257</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>1370</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>9143790</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>7894679</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="14">
         <v>6741391</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="15">
         <v>1300</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="19">
         <v>9208261</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>7959150</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>6805862</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>1420</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>0</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="20">
         <v>0</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>59830</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>1400</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="18">
         <v>0</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>0</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="14">
         <v>59830</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>1520</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="14">
         <v>731953</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>776398</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="14">
         <v>709056</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>1540</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>343953</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="19">
         <v>358169</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <v>551758</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>1550</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="18">
         <v>0</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>0</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>1500</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <v>1075906</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>1134567</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="19">
         <v>1260814</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="23">
         <v>1700</v>
       </c>
-      <c r="C78" s="25">
+      <c r="C78" s="24">
         <v>10284167</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="24">
         <v>9093717</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="24">
         <v>8126506</v>
       </c>
     </row>
@@ -2872,7 +3086,7 @@
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" ht="90.75" thickBot="1">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B80"/>
@@ -2881,317 +3095,317 @@
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>2018</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>2017</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>2016</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>2110</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>5234816</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>4820754</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>5095643</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>2120</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>-3008896</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>-2757923</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="19">
         <v>-3013884</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>2100</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>2225920</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>2062831</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>2081759</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>2210</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="19">
         <v>-586686</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>-490895</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="19">
         <v>-568924</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>2220</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>-268379</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>-227230</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>-264663</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>2200</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <v>1370855</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>1344706</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <v>1248172</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>2320</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>496411</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>439681</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>423502</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>2330</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="20">
         <v>0</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="20">
         <v>0</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>2340</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>48868</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>10081</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>57534</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>2350</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="20">
         <v>0</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>-54209</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>-164954</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <v>2300</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>1916134</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="14">
         <v>1740259</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="14">
         <v>1564254</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>2410</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <v>-456417</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="19">
         <v>-348379</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <v>-253021</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>2430</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C94" s="18">
         <v>0</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>0</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="14">
         <v>-59830</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>2450</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <v>72863</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D95" s="16">
         <v>328</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>2460</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="18">
         <v>0</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="14">
         <v>59830</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="14">
         <v>-59702</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>2400</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <v>1532580</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>1452038</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>1191701</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
     </row>
     <row r="99" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>2500</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <v>1532580</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="19">
         <v>1452038</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="19">
         <v>1191701</v>
       </c>
     </row>
@@ -3218,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
@@ -3228,7 +3442,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
@@ -3249,7 +3463,7 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3260,7 +3474,7 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>400</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3271,7 +3485,7 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>500</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3282,7 +3496,7 @@
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>400</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3293,7 +3507,7 @@
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>300</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3304,7 +3518,7 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1000</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3315,7 +3529,7 @@
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>200</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3326,7 +3540,7 @@
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>300</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3337,7 +3551,7 @@
       <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3348,7 +3562,7 @@
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>500</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3365,7 +3579,7 @@
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>250</v>
       </c>
     </row>
@@ -3373,7 +3587,7 @@
       <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3381,7 +3595,7 @@
       <c r="A20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>27.5</v>
       </c>
     </row>
@@ -3389,7 +3603,7 @@
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>2500</v>
       </c>
     </row>
@@ -3397,7 +3611,7 @@
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>325</v>
       </c>
     </row>
@@ -3405,7 +3619,7 @@
       <c r="A23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3413,7 +3627,7 @@
       <c r="A24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>375</v>
       </c>
     </row>
@@ -3507,7 +3721,7 @@
       <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B45"/>
@@ -3516,490 +3730,490 @@
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>43465</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>43100</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>42735</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>1150</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <v>51613</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>49679</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>55791</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>1170</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>100</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="16">
         <v>100</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>1180</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="18">
         <v>0</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>1</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="15">
         <v>1190</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="19">
         <v>1511</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>1814</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>1522</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>1100</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>53224</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>51594</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>57956</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>1210</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>70057</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>91408</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>83792</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>1220</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>43</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <v>46</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="16">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>1230</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>80651</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>41771</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>38560</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>1240</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>793</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <v>1127</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>1035</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>1250</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>1510</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>7648</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>2576</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <v>1260</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <v>13236</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="19">
         <v>10151</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>4098</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>1200</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>166290</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>152151</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>130128</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="21">
         <v>1600</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="22">
         <v>219514</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="22">
         <v>203745</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>188084</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
     </row>
     <row r="65" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>1310</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <v>117</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="17">
         <v>117</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="17">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>1350</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="19">
         <v>50978</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="19">
         <v>50978</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>50978</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>1360</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>117</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="17">
         <v>117</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>1370</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="19">
         <v>18916</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>21605</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="19">
         <v>-12879</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>1300</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>70128</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>72817</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>38333</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>1420</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>965</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="14">
         <v>1883</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>1400</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="16">
         <v>965</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>1883</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="16">
         <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="28"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>1510</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="19">
         <v>27886</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>30300</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="19">
         <v>19090</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>1520</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="14">
         <v>120535</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>98745</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="14">
         <v>130084</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>1500</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <v>148421</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="19">
         <v>129045</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="19">
         <v>149174</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="23">
         <v>1700</v>
       </c>
-      <c r="C77" s="25">
+      <c r="C77" s="24">
         <v>219514</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="24">
         <v>203745</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="24">
         <v>188084</v>
       </c>
     </row>
@@ -4018,7 +4232,7 @@
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" ht="54.75" thickBot="1">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B80"/>
@@ -4027,317 +4241,317 @@
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>2018</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>2017</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>2016</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>2110</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>617918</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>562907</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>545496</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>2120</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>-593449</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>-479858</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="19">
         <v>-484103</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>2100</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>24469</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>83049</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>61393</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>2210</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="19">
         <v>-3000</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>-2948</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="19">
         <v>-2962</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>2200</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>21469</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>80101</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>58431</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>2310</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <v>1</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="16">
         <v>564</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>2320</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="17">
         <v>221</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="17">
         <v>471</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>2330</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="19">
         <v>-4406</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="19">
         <v>-3346</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="19">
         <v>-5928</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>2340</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>38604</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>32934</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>40379</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>2350</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="19">
         <v>-52876</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>-55624</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>-39115</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <v>2300</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>3013</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="14">
         <v>55100</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="14">
         <v>54523</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>2410</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <v>-4382</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="19">
         <v>-14985</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <v>-14366</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>2430</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>918</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="14">
         <v>-1306</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="17">
         <v>838</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>2450</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="16">
         <v>-1</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="20">
         <v>0</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>2460</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>-1070</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="14">
         <v>-3741</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="14">
         <v>-4609</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>2400</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <v>-1522</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>35068</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>36387</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="28"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="27"/>
     </row>
     <row r="99" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>2500</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <v>-1522</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="19">
         <v>35068</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="19">
         <v>36387</v>
       </c>
     </row>
@@ -4364,7 +4578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -4374,7 +4588,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
     <col min="3" max="3" width="12.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
@@ -4395,7 +4609,7 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>80</v>
       </c>
     </row>
@@ -4403,7 +4617,7 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4411,7 +4625,7 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>20</v>
       </c>
     </row>
@@ -4419,7 +4633,7 @@
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
     </row>
@@ -4427,7 +4641,7 @@
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>15</v>
       </c>
     </row>
@@ -4435,7 +4649,7 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4443,7 +4657,7 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>30</v>
       </c>
     </row>
@@ -4451,7 +4665,7 @@
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>100</v>
       </c>
     </row>
@@ -4459,7 +4673,7 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>30</v>
       </c>
     </row>
@@ -4467,7 +4681,7 @@
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>20</v>
       </c>
     </row>
@@ -4480,7 +4694,7 @@
       <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>300</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -4491,7 +4705,7 @@
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -4502,7 +4716,7 @@
       <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4513,7 +4727,7 @@
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>3000</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4524,7 +4738,7 @@
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>390</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -4535,7 +4749,7 @@
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4546,7 +4760,7 @@
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>450</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -4643,7 +4857,7 @@
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="36.75" thickBot="1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B44"/>
@@ -4652,677 +4866,677 @@
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>43465</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>43100</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>42735</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>1110</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>2998077</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>3047514</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>2016132</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>1120</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>253099</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>333234</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>300489</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>1130</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>990145</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>496769</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>975349</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>1150</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>236955217</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="19">
         <v>244801165</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>252670583</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>1160</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
         <v>0</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>421969</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>433983</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="15">
         <v>1170</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <v>146853578</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>180701215</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>267007757</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>1180</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>6480862</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>6976346</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>7673757</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="15">
         <v>1190</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <v>2269714</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>3305194</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>4329119</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>1100</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>396800692</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>440083406</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>535407169</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>1210</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>58763994</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>62371842</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>67256132</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>1220</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>225931</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>412303</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>508754</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>1230</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>28536642</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>38552076</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>21020955</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>1240</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <v>20968211</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>30212598</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>31564222</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>1250</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="14">
         <v>24893579</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>5104840</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <v>25822451</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>1260</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="19">
         <v>27514</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="19">
         <v>38584</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="19">
         <v>49171</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>1200</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>133415871</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>136692243</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="14">
         <v>146221685</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="21">
         <v>1600</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="22">
         <v>530216563</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="22">
         <v>576775649</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>681628854</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
     </row>
     <row r="68" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>1310</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>3682483</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>3682483</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="14">
         <v>3682483</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="15">
         <v>1340</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="19">
         <v>54268256</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>59531991</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>61653539</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>1350</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="14">
         <v>50043282</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>50041980</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="14">
         <v>50041003</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>1360</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="19">
         <v>736500</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="19">
         <v>736500</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>736500</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>1370</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="14">
         <v>224354945</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>272082190</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="14">
         <v>321106591</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>1300</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="19">
         <v>333085466</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="19">
         <v>386075144</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="19">
         <v>437220116</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>1410</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>61132891</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="19">
         <v>57727129</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <v>140724008</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>1420</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <v>32498788</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <v>46228731</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="14">
         <v>51295225</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>1430</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <v>16578661</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>19377232</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="19">
         <v>19878747</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <v>1450</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="14">
         <v>2294031</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <v>0</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="15">
         <v>1400</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="19">
         <v>112504371</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="19">
         <v>123333092</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="19">
         <v>211897980</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="28"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="15">
         <v>1510</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="19">
         <v>55518892</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="19">
         <v>37102473</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="19">
         <v>2525314</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>1520</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>18176622</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>19698523</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>20971693</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>1530</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>558021</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="20">
         <v>0</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>1540</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>10373098</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>10555953</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>9002618</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>1550</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <v>93</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>10464</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="19">
         <v>11133</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>1500</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>84626726</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>67367413</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>32510758</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="21">
         <v>1700</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="22">
         <v>530216563</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="22">
         <v>576775649</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="22">
         <v>681628854</v>
       </c>
     </row>
@@ -5334,7 +5548,7 @@
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5" ht="72.75" thickBot="1">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B89"/>
@@ -5343,351 +5557,351 @@
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11">
         <v>2018</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="11">
         <v>2017</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="11">
         <v>2016</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>2110</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="14">
         <v>219801594</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="14">
         <v>200039378</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="14">
         <v>249566455</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>2120</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="19">
         <v>-100657279</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="19">
         <v>-103811690</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="19">
         <v>-94417716</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="14">
+      <c r="B93" s="13">
         <v>2100</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="14">
         <v>119144315</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="14">
         <v>96227688</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="14">
         <v>155148739</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="15">
         <v>2210</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="19">
         <v>-3666160</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="19">
         <v>-2510491</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="19">
         <v>-14156959</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <v>2220</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="14">
         <v>-8726251</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="14">
         <v>-8610794</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="14">
         <v>-7343068</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="15">
         <v>2200</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="19">
         <v>106751904</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="19">
         <v>85106403</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="19">
         <v>133648712</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="14">
+      <c r="B97" s="13">
         <v>2310</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="14">
         <v>9052949</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="14">
         <v>16407460</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="14">
         <v>18209677</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="15">
         <v>2320</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="19">
         <v>2715067</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="19">
         <v>4071678</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="19">
         <v>6495206</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <v>2330</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>-5623819</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="14">
         <v>-7131675</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="14">
         <v>-10902143</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="15">
         <v>2340</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="19">
         <v>70090257</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="19">
         <v>19034841</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="19">
         <v>89470518</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <v>2350</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="14">
         <v>-146767956</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="14">
         <v>-87676709</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="14">
         <v>-51304184</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="15">
         <v>2300</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="19">
         <v>36218402</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="19">
         <v>29811998</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="19">
         <v>185617786</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="14">
+      <c r="B103" s="13">
         <v>2410</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="14">
         <v>-20269095</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="14">
         <v>-17842299</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="14">
         <v>-29839188</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="15">
         <v>2430</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C104" s="19">
         <v>13729943</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D104" s="19">
         <v>4712963</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="19">
         <v>-10449970</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105" s="13">
         <v>2450</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="14">
         <v>-495484</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="14">
         <v>310862</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="14">
         <v>3507666</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="15">
         <v>2460</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C106" s="19">
         <v>123845</v>
       </c>
-      <c r="D106" s="20">
+      <c r="D106" s="19">
         <v>150392</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="19">
         <v>-313254</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="14">
+      <c r="B107" s="13">
         <v>2400</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="14">
         <v>29307611</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="14">
         <v>17143916</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="14">
         <v>148523040</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="28"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="27"/>
     </row>
     <row r="109" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="14">
+      <c r="B109" s="13">
         <v>2520</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="14">
         <v>-42048</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="14">
         <v>303044</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="14">
         <v>191206</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="15">
         <v>2500</v>
       </c>
-      <c r="C110" s="20">
+      <c r="C110" s="19">
         <v>29265563</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D110" s="19">
         <v>17446960</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E110" s="19">
         <v>148714246</v>
       </c>
     </row>
@@ -5714,7 +5928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -5723,34 +5937,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="12.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="34.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="12.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>120</v>
       </c>
     </row>
@@ -5758,7 +5972,7 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5766,7 +5980,7 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>30</v>
       </c>
     </row>
@@ -5774,7 +5988,7 @@
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>7.5</v>
       </c>
     </row>
@@ -5782,7 +5996,7 @@
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>22.5</v>
       </c>
     </row>
@@ -5790,7 +6004,7 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -5798,7 +6012,7 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>45</v>
       </c>
     </row>
@@ -5806,7 +6020,7 @@
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>150</v>
       </c>
     </row>
@@ -5814,7 +6028,7 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>45</v>
       </c>
     </row>
@@ -5822,7 +6036,7 @@
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>30</v>
       </c>
     </row>
@@ -6036,7 +6250,7 @@
     </row>
     <row r="48" spans="1:1" s="5" customFormat="1"/>
     <row r="49" spans="1:5" s="5" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B49"/>
@@ -6045,507 +6259,507 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>43465</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>43100</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>42735</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>1150</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>215509</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>167093</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>71662</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>1180</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <v>414</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <v>609</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>1190</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>23292</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>153</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>1100</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
         <v>239215</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <v>167855</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>71665</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>1210</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="19">
         <v>332644</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <v>213415</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>163611</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>1220</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>844</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="17">
         <v>27</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>2707</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <v>1230</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <v>116046</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="19">
         <v>212307</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>122722</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>1250</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>8521</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>42295</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>3953</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>1260</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="19">
         <v>3445</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>10</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>1200</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>461500</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>468054</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <v>292993</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="21">
         <v>1600</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="22">
         <v>700715</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>635909</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>364658</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>1310</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>10</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="17">
         <v>10</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>1320</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>0</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="20">
         <v>0</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>1370</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>186293</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>167025</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>118609</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>1300</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="19">
         <v>186303</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="19">
         <v>167035</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>118619</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>1410</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="19">
         <v>310687</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>242734</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="19">
         <v>29668</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>1420</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>18825</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>14364</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="14">
         <v>11200</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>1400</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="19">
         <v>329512</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>257098</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="19">
         <v>40868</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>1510</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>0</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="20">
         <v>0</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <v>1520</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="14">
         <v>182898</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>208772</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="14">
         <v>205171</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="15">
         <v>1530</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>0</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="20">
         <v>0</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="13">
         <v>1540</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="14">
         <v>2002</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="14">
         <v>3004</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <v>1550</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <v>0</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="20">
         <v>0</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <v>1500</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="14">
         <v>184900</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="14">
         <v>211776</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="14">
         <v>205171</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="21">
         <v>1700</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="22">
         <v>700715</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="22">
         <v>635909</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="22">
         <v>364658</v>
       </c>
     </row>
@@ -6557,7 +6771,7 @@
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" ht="54.75" thickBot="1">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B84"/>
@@ -6566,283 +6780,283 @@
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>2018</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="11">
         <v>2017</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="11">
         <v>2016</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>2110</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>350654</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>477090</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>432520</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>2120</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <v>-309187</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>-400622</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <v>-378237</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>2100</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>41467</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>76468</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>54283</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>2210</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <v>-1</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89" s="16">
         <v>-935</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="16">
         <v>-82</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>2200</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>41466</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>75533</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>54201</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>2330</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="19">
         <v>-18750</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>-10024</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>-6077</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <v>2340</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>7367</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="14">
         <v>12632</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="14">
         <v>7265</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>2350</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <v>-5783</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="19">
         <v>-16041</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <v>-3837</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>2300</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="14">
         <v>24300</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="14">
         <v>62100</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="14">
         <v>51552</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>2410</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="16">
         <v>-375</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="19">
         <v>-11102</v>
       </c>
-      <c r="E95" s="20">
+      <c r="E95" s="19">
         <v>-10905</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>2430</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>-4461</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="14">
         <v>-3164</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="17">
         <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>2450</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="16">
         <v>-195</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D97" s="16">
         <v>606</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <v>2460</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="17">
         <v>-1</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="17">
         <v>-24</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="17">
         <v>-290</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>2400</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <v>19268</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="19">
         <v>48416</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="19">
         <v>40881</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
     </row>
     <row r="101" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="15">
         <v>2500</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="19">
         <v>19268</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="19">
         <v>48416</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="19">
         <v>40881</v>
       </c>
     </row>
@@ -6871,7 +7085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
